--- a/EngineerDoc/ElectronicsList.xlsx
+++ b/EngineerDoc/ElectronicsList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Link</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Wireless motion controller for R2D2</t>
+  </si>
+  <si>
+    <t>MicroSD Card</t>
+  </si>
+  <si>
+    <t>16 GB of flash memory card</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -423,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,8 +743,8 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +787,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -815,8 +828,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <f t="shared" ref="A6:A23" si="0">1+A5</f>
+      <c r="A6" s="24">
+        <f t="shared" ref="A6:A27" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -836,7 +849,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -918,7 +931,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -960,7 +973,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1019,7 +1032,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1038,7 +1051,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1057,7 +1070,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1076,7 +1089,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1178,6 +1191,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1196,6 +1210,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1211,15 +1226,27 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
